--- a/Logs/Keys_changed.xlsx
+++ b/Logs/Keys_changed.xlsx
@@ -269,6 +269,74 @@
       </fill>
     </dxf>
   </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -576,7 +644,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G1973"/>
+  <dimension ref="A1:G1977"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A1954" activePane="bottomLeft" state="frozen"/>
@@ -56545,19 +56613,127 @@
       </c>
     </row>
     <row r="1973">
-      <c r="A1973" t="inlineStr">
+      <c r="A1973" s="0" t="inlineStr">
         <is>
           <t>24.06.2020</t>
         </is>
       </c>
-      <c r="B1973" t="inlineStr">
-        <is>
-          <t>messages</t>
-        </is>
-      </c>
-      <c r="C1973" t="inlineStr"/>
-      <c r="D1973" t="inlineStr"/>
-      <c r="E1973" t="inlineStr"/>
+      <c r="B1973" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C1973" s="0" t="inlineStr"/>
+      <c r="D1973" s="0" t="inlineStr"/>
+      <c r="E1973" s="0" t="inlineStr"/>
+    </row>
+    <row r="1974">
+      <c r="A1974" s="0" t="inlineStr">
+        <is>
+          <t>01.07.2020</t>
+        </is>
+      </c>
+      <c r="B1974" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C1974" s="0" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D1974" s="0" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E1974" s="0" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="1975">
+      <c r="A1975" s="0" t="inlineStr">
+        <is>
+          <t>02.07.2020</t>
+        </is>
+      </c>
+      <c r="B1975" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C1975" s="0" t="inlineStr">
+        <is>
+          <t>app.order.type</t>
+        </is>
+      </c>
+      <c r="D1975" s="0" t="inlineStr">
+        <is>
+          <t>Typ</t>
+        </is>
+      </c>
+      <c r="E1975" s="0" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="1976">
+      <c r="A1976" s="0" t="inlineStr">
+        <is>
+          <t>02.07.2020</t>
+        </is>
+      </c>
+      <c r="B1976" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C1976" s="0" t="inlineStr">
+        <is>
+          <t>app.invoice_group.pdf.summary_components</t>
+        </is>
+      </c>
+      <c r="D1976" s="0" t="inlineStr">
+        <is>
+          <t>Podsumowanie komponentów</t>
+        </is>
+      </c>
+      <c r="E1976" s="0" t="inlineStr">
+        <is>
+          <t>Components summary</t>
+        </is>
+      </c>
+    </row>
+    <row r="1977">
+      <c r="A1977" t="inlineStr">
+        <is>
+          <t>02.07.2020</t>
+        </is>
+      </c>
+      <c r="B1977" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C1977" t="inlineStr">
+        <is>
+          <t>app.order.repaired_parts</t>
+        </is>
+      </c>
+      <c r="D1977" t="inlineStr">
+        <is>
+          <t>Komponenty naprawione</t>
+        </is>
+      </c>
+      <c r="E1977" t="inlineStr">
+        <is>
+          <t>Parts reworked</t>
+        </is>
+      </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="20"/>
     <row r="1048570" ht="12.8" customHeight="1" s="20"/>

--- a/Logs/Keys_changed.xlsx
+++ b/Logs/Keys_changed.xlsx
@@ -644,7 +644,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G1977"/>
+  <dimension ref="A1:G1980"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A1954" activePane="bottomLeft" state="frozen"/>
@@ -56709,29 +56709,110 @@
       </c>
     </row>
     <row r="1977">
-      <c r="A1977" t="inlineStr">
+      <c r="A1977" s="0" t="inlineStr">
         <is>
           <t>02.07.2020</t>
         </is>
       </c>
-      <c r="B1977" t="inlineStr">
-        <is>
-          <t>messages</t>
-        </is>
-      </c>
-      <c r="C1977" t="inlineStr">
+      <c r="B1977" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C1977" s="0" t="inlineStr">
         <is>
           <t>app.order.repaired_parts</t>
         </is>
       </c>
-      <c r="D1977" t="inlineStr">
+      <c r="D1977" s="0" t="inlineStr">
         <is>
           <t>Komponenty naprawione</t>
         </is>
       </c>
-      <c r="E1977" t="inlineStr">
+      <c r="E1977" s="0" t="inlineStr">
         <is>
           <t>Parts reworked</t>
+        </is>
+      </c>
+    </row>
+    <row r="1978">
+      <c r="A1978" s="0" t="inlineStr">
+        <is>
+          <t>02.07.2020</t>
+        </is>
+      </c>
+      <c r="B1978" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C1978" s="0" t="inlineStr">
+        <is>
+          <t>app.order.components.defective</t>
+        </is>
+      </c>
+      <c r="D1978" s="0" t="inlineStr">
+        <is>
+          <t>Wadliwość</t>
+        </is>
+      </c>
+      <c r="E1978" s="0" t="inlineStr">
+        <is>
+          <t>Defectiveness</t>
+        </is>
+      </c>
+    </row>
+    <row r="1979">
+      <c r="A1979" s="0" t="inlineStr">
+        <is>
+          <t>02.07.2020</t>
+        </is>
+      </c>
+      <c r="B1979" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C1979" s="0" t="inlineStr">
+        <is>
+          <t>app.order.components.non_optimized</t>
+        </is>
+      </c>
+      <c r="D1979" s="0" t="inlineStr">
+        <is>
+          <t>Not reworked</t>
+        </is>
+      </c>
+      <c r="E1979" s="0" t="inlineStr">
+        <is>
+          <t>Not reworked</t>
+        </is>
+      </c>
+    </row>
+    <row r="1980">
+      <c r="A1980" t="inlineStr">
+        <is>
+          <t>02.07.2020</t>
+        </is>
+      </c>
+      <c r="B1980" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C1980" t="inlineStr">
+        <is>
+          <t>app.order.components.defectivenes_nok</t>
+        </is>
+      </c>
+      <c r="D1980" t="inlineStr">
+        <is>
+          <t>Wadliwość (NOK)</t>
+        </is>
+      </c>
+      <c r="E1980" t="inlineStr">
+        <is>
+          <t>Defectiveness (NOK)</t>
         </is>
       </c>
     </row>

--- a/Logs/Keys_changed.xlsx
+++ b/Logs/Keys_changed.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Arkusz1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -269,74 +269,6 @@
       </fill>
     </dxf>
   </dxfs>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -639,12 +571,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G1980"/>
+  <dimension ref="A1:G1981"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A1954" activePane="bottomLeft" state="frozen"/>
@@ -56790,29 +56722,56 @@
       </c>
     </row>
     <row r="1980">
-      <c r="A1980" t="inlineStr">
+      <c r="A1980" s="0" t="inlineStr">
         <is>
           <t>02.07.2020</t>
         </is>
       </c>
-      <c r="B1980" t="inlineStr">
-        <is>
-          <t>messages</t>
-        </is>
-      </c>
-      <c r="C1980" t="inlineStr">
+      <c r="B1980" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C1980" s="0" t="inlineStr">
         <is>
           <t>app.order.components.defectivenes_nok</t>
         </is>
       </c>
-      <c r="D1980" t="inlineStr">
+      <c r="D1980" s="0" t="inlineStr">
         <is>
           <t>Wadliwość (NOK)</t>
         </is>
       </c>
-      <c r="E1980" t="inlineStr">
+      <c r="E1980" s="0" t="inlineStr">
         <is>
           <t>Defectiveness (NOK)</t>
+        </is>
+      </c>
+    </row>
+    <row r="1981">
+      <c r="A1981" t="inlineStr">
+        <is>
+          <t>07/03/20</t>
+        </is>
+      </c>
+      <c r="B1981" t="inlineStr">
+        <is>
+          <t>validators</t>
+        </is>
+      </c>
+      <c r="C1981" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D1981" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E1981" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
@@ -56832,7 +56791,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Logs/Keys_changed.xlsx
+++ b/Logs/Keys_changed.xlsx
@@ -576,7 +576,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G1981"/>
+  <dimension ref="A1:G1983"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A1954" activePane="bottomLeft" state="frozen"/>
@@ -56749,29 +56749,103 @@
       </c>
     </row>
     <row r="1981">
-      <c r="A1981" t="inlineStr">
+      <c r="A1981" s="0" t="inlineStr">
         <is>
           <t>07/03/20</t>
         </is>
       </c>
-      <c r="B1981" t="inlineStr">
+      <c r="B1981" s="0" t="inlineStr">
         <is>
           <t>validators</t>
         </is>
       </c>
-      <c r="C1981" t="inlineStr">
+      <c r="C1981" s="0" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
-      <c r="D1981" t="inlineStr">
+      <c r="D1981" s="0" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
-      <c r="E1981" t="inlineStr">
+      <c r="E1981" s="0" t="inlineStr">
         <is>
           <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="1982">
+      <c r="A1982" s="0" t="inlineStr">
+        <is>
+          <t>07/03/20</t>
+        </is>
+      </c>
+      <c r="B1982" s="0" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="C1982" s="0" t="inlineStr">
+        <is>
+          <t>app.company.fixed_costs.type.coordinator</t>
+        </is>
+      </c>
+      <c r="D1982" s="0" t="inlineStr">
+        <is>
+          <t>Koordynator</t>
+        </is>
+      </c>
+      <c r="E1982" s="0" t="inlineStr">
+        <is>
+          <t>Coordinator</t>
+        </is>
+      </c>
+      <c r="F1982" s="0" t="inlineStr">
+        <is>
+          <t>Koordynator</t>
+        </is>
+      </c>
+      <c r="G1982" s="0" t="inlineStr">
+        <is>
+          <t>Coordindator</t>
+        </is>
+      </c>
+    </row>
+    <row r="1983">
+      <c r="A1983" t="inlineStr">
+        <is>
+          <t>07/03/20</t>
+        </is>
+      </c>
+      <c r="B1983" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C1983" t="inlineStr">
+        <is>
+          <t>app.company.fixed_costs.type.coordinator</t>
+        </is>
+      </c>
+      <c r="D1983" t="inlineStr">
+        <is>
+          <t>Koordynator</t>
+        </is>
+      </c>
+      <c r="E1983" t="inlineStr">
+        <is>
+          <t>Coordinator</t>
+        </is>
+      </c>
+      <c r="F1983" t="inlineStr">
+        <is>
+          <t>Koordynator</t>
+        </is>
+      </c>
+      <c r="G1983" t="inlineStr">
+        <is>
+          <t>Coordindator</t>
         </is>
       </c>
     </row>

--- a/Logs/Keys_changed.xlsx
+++ b/Logs/Keys_changed.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Arkusz1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -269,6 +269,74 @@
       </fill>
     </dxf>
   </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -571,12 +639,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G1983"/>
+  <dimension ref="A1:G1995"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A1954" activePane="bottomLeft" state="frozen"/>
@@ -56813,39 +56881,393 @@
       </c>
     </row>
     <row r="1983">
-      <c r="A1983" t="inlineStr">
+      <c r="A1983" s="0" t="inlineStr">
         <is>
           <t>07/03/20</t>
         </is>
       </c>
-      <c r="B1983" t="inlineStr">
-        <is>
-          <t>messages</t>
-        </is>
-      </c>
-      <c r="C1983" t="inlineStr">
+      <c r="B1983" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C1983" s="0" t="inlineStr">
         <is>
           <t>app.company.fixed_costs.type.coordinator</t>
         </is>
       </c>
-      <c r="D1983" t="inlineStr">
+      <c r="D1983" s="0" t="inlineStr">
         <is>
           <t>Koordynator</t>
         </is>
       </c>
-      <c r="E1983" t="inlineStr">
+      <c r="E1983" s="0" t="inlineStr">
         <is>
           <t>Coordinator</t>
         </is>
       </c>
-      <c r="F1983" t="inlineStr">
+      <c r="F1983" s="0" t="inlineStr">
         <is>
           <t>Koordynator</t>
         </is>
       </c>
-      <c r="G1983" t="inlineStr">
+      <c r="G1983" s="0" t="inlineStr">
         <is>
           <t>Coordindator</t>
+        </is>
+      </c>
+    </row>
+    <row r="1984">
+      <c r="A1984" s="0" t="inlineStr">
+        <is>
+          <t>06.07.2020</t>
+        </is>
+      </c>
+      <c r="B1984" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C1984" s="0" t="inlineStr">
+        <is>
+          <t>app.client.add_additional_pricing_description</t>
+        </is>
+      </c>
+      <c r="D1984" s="0" t="inlineStr">
+        <is>
+          <t>Dodaj dodatkowy opis cennika</t>
+        </is>
+      </c>
+      <c r="E1984" s="0" t="inlineStr">
+        <is>
+          <t>Add additional pricing description</t>
+        </is>
+      </c>
+    </row>
+    <row r="1985">
+      <c r="A1985" s="0" t="inlineStr">
+        <is>
+          <t>06.07.2020</t>
+        </is>
+      </c>
+      <c r="B1985" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C1985" s="0" t="inlineStr">
+        <is>
+          <t>app.client.additional_pricing_description.label</t>
+        </is>
+      </c>
+      <c r="D1985" s="0" t="inlineStr">
+        <is>
+          <t>Dodatkowy opis cennika</t>
+        </is>
+      </c>
+      <c r="E1985" s="0" t="inlineStr">
+        <is>
+          <t>Additional pricing description</t>
+        </is>
+      </c>
+    </row>
+    <row r="1986">
+      <c r="A1986" s="0" t="inlineStr">
+        <is>
+          <t>06.07.2020</t>
+        </is>
+      </c>
+      <c r="B1986" s="0" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="C1986" s="0" t="inlineStr">
+        <is>
+          <t>app.client.additional_client_pricing_description</t>
+        </is>
+      </c>
+      <c r="D1986" s="0" t="inlineStr">
+        <is>
+          <t>Dodatkowy opis cennika</t>
+        </is>
+      </c>
+      <c r="E1986" s="0" t="inlineStr">
+        <is>
+          <t>Additional pricing description</t>
+        </is>
+      </c>
+    </row>
+    <row r="1987">
+      <c r="A1987" s="0" t="inlineStr">
+        <is>
+          <t>06.07.2020</t>
+        </is>
+      </c>
+      <c r="B1987" s="0" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="C1987" s="0" t="inlineStr">
+        <is>
+          <t>app.order_report.order_status</t>
+        </is>
+      </c>
+      <c r="D1987" s="0" t="inlineStr">
+        <is>
+          <t>Status zamówienia</t>
+        </is>
+      </c>
+      <c r="E1987" s="0" t="inlineStr">
+        <is>
+          <t>Order status</t>
+        </is>
+      </c>
+    </row>
+    <row r="1988">
+      <c r="A1988" s="0" t="inlineStr">
+        <is>
+          <t>06.07.2020</t>
+        </is>
+      </c>
+      <c r="B1988" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C1988" s="0" t="inlineStr">
+        <is>
+          <t>app.order_report.order_status</t>
+        </is>
+      </c>
+      <c r="D1988" s="0" t="inlineStr">
+        <is>
+          <t>Status zamówienia</t>
+        </is>
+      </c>
+      <c r="E1988" s="0" t="inlineStr">
+        <is>
+          <t>Order status</t>
+        </is>
+      </c>
+    </row>
+    <row r="1989">
+      <c r="A1989" s="0" t="inlineStr">
+        <is>
+          <t>06.07.2020</t>
+        </is>
+      </c>
+      <c r="B1989" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C1989" s="0" t="inlineStr">
+        <is>
+          <t>app.order_report.order.department_payer</t>
+        </is>
+      </c>
+      <c r="D1989" s="0" t="inlineStr">
+        <is>
+          <t>Dział płatnika</t>
+        </is>
+      </c>
+      <c r="E1989" s="0" t="inlineStr">
+        <is>
+          <t>Payer department</t>
+        </is>
+      </c>
+    </row>
+    <row r="1990">
+      <c r="A1990" s="0" t="inlineStr">
+        <is>
+          <t>06.07.2020</t>
+        </is>
+      </c>
+      <c r="B1990" s="0" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="C1990" s="0" t="inlineStr">
+        <is>
+          <t>app.order_report.order.department_payer</t>
+        </is>
+      </c>
+      <c r="D1990" s="0" t="inlineStr">
+        <is>
+          <t>Dział płatnika</t>
+        </is>
+      </c>
+      <c r="E1990" s="0" t="inlineStr">
+        <is>
+          <t>Payer department</t>
+        </is>
+      </c>
+    </row>
+    <row r="1991">
+      <c r="A1991" s="0" t="inlineStr">
+        <is>
+          <t>07.07.2020</t>
+        </is>
+      </c>
+      <c r="B1991" s="0" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="C1991" s="0" t="inlineStr">
+        <is>
+          <t>app.order_report.dashboard.representative</t>
+        </is>
+      </c>
+      <c r="D1991" s="0" t="inlineStr">
+        <is>
+          <t>Dział płatnika / Przedstawiciel płatnika</t>
+        </is>
+      </c>
+      <c r="E1991" s="0" t="inlineStr">
+        <is>
+          <t>Dział płatnika / Przedstawiciel płatnika</t>
+        </is>
+      </c>
+      <c r="F1991" s="0" t="inlineStr">
+        <is>
+          <t>Inżynier odpowiedzialny za specyfikację</t>
+        </is>
+      </c>
+      <c r="G1991" s="0" t="inlineStr">
+        <is>
+          <t>Engineer (responsible for specification)</t>
+        </is>
+      </c>
+    </row>
+    <row r="1992">
+      <c r="A1992" s="0" t="inlineStr">
+        <is>
+          <t>07.07.2020</t>
+        </is>
+      </c>
+      <c r="B1992" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C1992" s="0" t="inlineStr">
+        <is>
+          <t>app.order_report.dashboard.representative</t>
+        </is>
+      </c>
+      <c r="D1992" s="0" t="inlineStr">
+        <is>
+          <t>Dział płatnika / Przedstawiciel płatnika</t>
+        </is>
+      </c>
+      <c r="E1992" s="0" t="inlineStr">
+        <is>
+          <t>Dział płatnika / Przedstawiciel płatnika</t>
+        </is>
+      </c>
+      <c r="F1992" s="0" t="inlineStr">
+        <is>
+          <t>Inżynier odpowiedzialny za specyfikację</t>
+        </is>
+      </c>
+      <c r="G1992" s="0" t="inlineStr">
+        <is>
+          <t>Engineer (responsible for specification)</t>
+        </is>
+      </c>
+    </row>
+    <row r="1993">
+      <c r="A1993" s="0" t="inlineStr">
+        <is>
+          <t>07.07.2020</t>
+        </is>
+      </c>
+      <c r="B1993" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C1993" s="0" t="inlineStr">
+        <is>
+          <t>app.order_report.dashboard.representative</t>
+        </is>
+      </c>
+      <c r="D1993" s="0" t="inlineStr">
+        <is>
+          <t>Dział płatnika / Przedstawiciel płatnika</t>
+        </is>
+      </c>
+      <c r="E1993" s="0" t="inlineStr">
+        <is>
+          <t>Payer's Department/ Payer's representative</t>
+        </is>
+      </c>
+      <c r="F1993" s="0" t="inlineStr">
+        <is>
+          <t>Dział płatnika / Przedstawiciel płatnika</t>
+        </is>
+      </c>
+      <c r="G1993" s="0" t="inlineStr">
+        <is>
+          <t>Dział płatnika / Przedstawiciel płatnika</t>
+        </is>
+      </c>
+    </row>
+    <row r="1994">
+      <c r="A1994" s="0" t="inlineStr">
+        <is>
+          <t>07.07.2020</t>
+        </is>
+      </c>
+      <c r="B1994" s="0" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="C1994" s="0" t="inlineStr">
+        <is>
+          <t>app.worker.worker_code</t>
+        </is>
+      </c>
+      <c r="D1994" s="0" t="inlineStr">
+        <is>
+          <t>Kod pracownika</t>
+        </is>
+      </c>
+      <c r="E1994" s="0" t="inlineStr">
+        <is>
+          <t>Worker code</t>
+        </is>
+      </c>
+    </row>
+    <row r="1995">
+      <c r="A1995" t="inlineStr">
+        <is>
+          <t>07.07.2020</t>
+        </is>
+      </c>
+      <c r="B1995" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C1995" t="inlineStr">
+        <is>
+          <t>app.worker.worker_code</t>
+        </is>
+      </c>
+      <c r="D1995" t="inlineStr">
+        <is>
+          <t>Kod pracownika</t>
+        </is>
+      </c>
+      <c r="E1995" t="inlineStr">
+        <is>
+          <t>Worker code</t>
         </is>
       </c>
     </row>
@@ -56865,7 +57287,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Logs/Keys_changed.xlsx
+++ b/Logs/Keys_changed.xlsx
@@ -644,7 +644,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G1995"/>
+  <dimension ref="A1:G2020"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A1954" activePane="bottomLeft" state="frozen"/>
@@ -57245,29 +57245,754 @@
       </c>
     </row>
     <row r="1995">
-      <c r="A1995" t="inlineStr">
+      <c r="A1995" s="0" t="inlineStr">
         <is>
           <t>07.07.2020</t>
         </is>
       </c>
-      <c r="B1995" t="inlineStr">
-        <is>
-          <t>messages</t>
-        </is>
-      </c>
-      <c r="C1995" t="inlineStr">
+      <c r="B1995" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C1995" s="0" t="inlineStr">
         <is>
           <t>app.worker.worker_code</t>
         </is>
       </c>
-      <c r="D1995" t="inlineStr">
+      <c r="D1995" s="0" t="inlineStr">
         <is>
           <t>Kod pracownika</t>
         </is>
       </c>
-      <c r="E1995" t="inlineStr">
+      <c r="E1995" s="0" t="inlineStr">
         <is>
           <t>Worker code</t>
+        </is>
+      </c>
+    </row>
+    <row r="1996">
+      <c r="A1996" s="0" t="inlineStr">
+        <is>
+          <t>08.07.2020</t>
+        </is>
+      </c>
+      <c r="B1996" s="0" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="C1996" s="0" t="inlineStr">
+        <is>
+          <t>app.client.wallet.who</t>
+        </is>
+      </c>
+      <c r="D1996" s="0" t="inlineStr">
+        <is>
+          <t>Edytowane przez</t>
+        </is>
+      </c>
+      <c r="E1996" s="0" t="inlineStr">
+        <is>
+          <t>Edited by</t>
+        </is>
+      </c>
+      <c r="F1996" s="0" t="inlineStr">
+        <is>
+          <t>Środki dodane przez</t>
+        </is>
+      </c>
+      <c r="G1996" s="0" t="inlineStr">
+        <is>
+          <t>Funds added by</t>
+        </is>
+      </c>
+    </row>
+    <row r="1997">
+      <c r="A1997" s="0" t="inlineStr">
+        <is>
+          <t>08.07.2020</t>
+        </is>
+      </c>
+      <c r="B1997" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C1997" s="0" t="inlineStr">
+        <is>
+          <t>app.client.wallet.who</t>
+        </is>
+      </c>
+      <c r="D1997" s="0" t="inlineStr">
+        <is>
+          <t>Edytowane przez</t>
+        </is>
+      </c>
+      <c r="E1997" s="0" t="inlineStr">
+        <is>
+          <t>Edited by</t>
+        </is>
+      </c>
+      <c r="F1997" s="0" t="inlineStr">
+        <is>
+          <t>Środki dodane przez</t>
+        </is>
+      </c>
+      <c r="G1997" s="0" t="inlineStr">
+        <is>
+          <t>Funds added by</t>
+        </is>
+      </c>
+    </row>
+    <row r="1998">
+      <c r="A1998" s="0" t="inlineStr">
+        <is>
+          <t>08.07.2020</t>
+        </is>
+      </c>
+      <c r="B1998" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C1998" s="0" t="inlineStr">
+        <is>
+          <t>app.company.send_invoice_group_notifications</t>
+        </is>
+      </c>
+      <c r="D1998" s="0" t="inlineStr">
+        <is>
+          <t>Wyślij powiadomienie</t>
+        </is>
+      </c>
+      <c r="E1998" s="0" t="inlineStr">
+        <is>
+          <t>Send notification</t>
+        </is>
+      </c>
+    </row>
+    <row r="1999">
+      <c r="A1999" s="0" t="inlineStr">
+        <is>
+          <t>08.07.2020</t>
+        </is>
+      </c>
+      <c r="B1999" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C1999" s="0" t="inlineStr">
+        <is>
+          <t>app.reports.invoice_data_xls</t>
+        </is>
+      </c>
+      <c r="D1999" s="0" t="inlineStr">
+        <is>
+          <t>Dane faktury</t>
+        </is>
+      </c>
+      <c r="E1999" s="0" t="inlineStr">
+        <is>
+          <t>Invoice data</t>
+        </is>
+      </c>
+    </row>
+    <row r="2000">
+      <c r="A2000" s="0" t="inlineStr">
+        <is>
+          <t>08.07.2020</t>
+        </is>
+      </c>
+      <c r="B2000" s="0" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="C2000" s="0" t="inlineStr">
+        <is>
+          <t>app.invoice_group.payment_status.partial_payment</t>
+        </is>
+      </c>
+      <c r="D2000" s="0" t="inlineStr">
+        <is>
+          <t>Płatność częściowa</t>
+        </is>
+      </c>
+      <c r="E2000" s="0" t="inlineStr">
+        <is>
+          <t>Partial payment</t>
+        </is>
+      </c>
+    </row>
+    <row r="2001">
+      <c r="A2001" s="0" t="inlineStr">
+        <is>
+          <t>08.07.2020</t>
+        </is>
+      </c>
+      <c r="B2001" s="0" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="C2001" s="0" t="inlineStr">
+        <is>
+          <t>app.invoice_group.payment_status.excess_payment</t>
+        </is>
+      </c>
+      <c r="D2001" s="0" t="inlineStr">
+        <is>
+          <t>Nadpłata</t>
+        </is>
+      </c>
+      <c r="E2001" s="0" t="inlineStr">
+        <is>
+          <t>Excess payment</t>
+        </is>
+      </c>
+    </row>
+    <row r="2002">
+      <c r="A2002" s="0" t="inlineStr">
+        <is>
+          <t>08.07.2020</t>
+        </is>
+      </c>
+      <c r="B2002" s="0" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="C2002" s="0" t="inlineStr">
+        <is>
+          <t>app.client.wallet.when</t>
+        </is>
+      </c>
+      <c r="D2002" s="0" t="inlineStr">
+        <is>
+          <t>Edytowane</t>
+        </is>
+      </c>
+      <c r="E2002" s="0" t="inlineStr">
+        <is>
+          <t>Edited at</t>
+        </is>
+      </c>
+      <c r="F2002" s="0" t="inlineStr">
+        <is>
+          <t>Data dodania środków</t>
+        </is>
+      </c>
+      <c r="G2002" s="0" t="inlineStr">
+        <is>
+          <t>Funds added at</t>
+        </is>
+      </c>
+    </row>
+    <row r="2003">
+      <c r="A2003" s="0" t="inlineStr">
+        <is>
+          <t>08.07.2020</t>
+        </is>
+      </c>
+      <c r="B2003" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2003" s="0" t="inlineStr">
+        <is>
+          <t>app.client.wallet.when</t>
+        </is>
+      </c>
+      <c r="D2003" s="0" t="inlineStr">
+        <is>
+          <t>Edytowane</t>
+        </is>
+      </c>
+      <c r="E2003" s="0" t="inlineStr">
+        <is>
+          <t>Edited at</t>
+        </is>
+      </c>
+      <c r="F2003" s="0" t="inlineStr">
+        <is>
+          <t>Data dodania środków</t>
+        </is>
+      </c>
+      <c r="G2003" s="0" t="inlineStr">
+        <is>
+          <t>Funds added at</t>
+        </is>
+      </c>
+    </row>
+    <row r="2004">
+      <c r="A2004" s="0" t="inlineStr">
+        <is>
+          <t>09.07.2020</t>
+        </is>
+      </c>
+      <c r="B2004" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2004" s="0" t="inlineStr">
+        <is>
+          <t>app.company.send_invoice_group_notifications</t>
+        </is>
+      </c>
+      <c r="D2004" s="0" t="inlineStr">
+        <is>
+          <t>Mailing z podsumowaniem grup fakturowych</t>
+        </is>
+      </c>
+      <c r="E2004" s="0" t="inlineStr">
+        <is>
+          <t>Mailing with invoice groups summary</t>
+        </is>
+      </c>
+      <c r="F2004" s="0" t="inlineStr">
+        <is>
+          <t>Wyślij powiadomienie</t>
+        </is>
+      </c>
+      <c r="G2004" s="0" t="inlineStr">
+        <is>
+          <t>Send notification</t>
+        </is>
+      </c>
+    </row>
+    <row r="2005">
+      <c r="A2005" s="0" t="inlineStr">
+        <is>
+          <t>09.07.2020</t>
+        </is>
+      </c>
+      <c r="B2005" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2005" s="0" t="inlineStr">
+        <is>
+          <t>app.client_pricing.type.external_foreign</t>
+        </is>
+      </c>
+      <c r="D2005" s="0" t="inlineStr">
+        <is>
+          <t>Dostawca zagraniczny</t>
+        </is>
+      </c>
+      <c r="E2005" s="0" t="inlineStr">
+        <is>
+          <t>External supplier</t>
+        </is>
+      </c>
+    </row>
+    <row r="2006">
+      <c r="A2006" s="0" t="inlineStr">
+        <is>
+          <t>09.07.2020</t>
+        </is>
+      </c>
+      <c r="B2006" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2006" s="0" t="inlineStr">
+        <is>
+          <t>app.client_pricing.type.external_domestic</t>
+        </is>
+      </c>
+      <c r="D2006" s="0" t="inlineStr">
+        <is>
+          <t>Dostawca krajowy</t>
+        </is>
+      </c>
+      <c r="E2006" s="0" t="inlineStr">
+        <is>
+          <t>Internal supplier</t>
+        </is>
+      </c>
+    </row>
+    <row r="2007">
+      <c r="A2007" s="0" t="inlineStr">
+        <is>
+          <t>09.07.2020</t>
+        </is>
+      </c>
+      <c r="B2007" s="0" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="C2007" s="0" t="inlineStr">
+        <is>
+          <t>app.client_pricing.type.internal_sorting_control</t>
+        </is>
+      </c>
+      <c r="D2007" s="0" t="inlineStr">
+        <is>
+          <t>Sorting&amp;Rework (Kontrola)</t>
+        </is>
+      </c>
+      <c r="E2007" s="0" t="inlineStr">
+        <is>
+          <t>Sorting&amp;Rework (Control)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2008">
+      <c r="A2008" s="0" t="inlineStr">
+        <is>
+          <t>09.07.2020</t>
+        </is>
+      </c>
+      <c r="B2008" s="0" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="C2008" s="0" t="inlineStr">
+        <is>
+          <t>app.client_pricing.type.internal_control_finished_rework</t>
+        </is>
+      </c>
+      <c r="D2008" s="0" t="inlineStr">
+        <is>
+          <t>Kontrola wyrobu gotowego (Rework)</t>
+        </is>
+      </c>
+      <c r="E2008" s="0" t="inlineStr">
+        <is>
+          <t>Final product quality control(Control)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2009">
+      <c r="A2009" s="0" t="inlineStr">
+        <is>
+          <t>09.07.2020</t>
+        </is>
+      </c>
+      <c r="B2009" s="0" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="C2009" s="0" t="inlineStr">
+        <is>
+          <t>app.client_pricing.type.internal_control_finished_control</t>
+        </is>
+      </c>
+      <c r="D2009" s="0" t="inlineStr">
+        <is>
+          <t>Kontrola wyrobu gotowego (Kontrola)</t>
+        </is>
+      </c>
+      <c r="E2009" s="0" t="inlineStr">
+        <is>
+          <t>Final product quality control(Control)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2010">
+      <c r="A2010" s="0" t="inlineStr">
+        <is>
+          <t>09.07.2020</t>
+        </is>
+      </c>
+      <c r="B2010" s="0" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="C2010" s="0" t="inlineStr">
+        <is>
+          <t>app.client_pricing.type.internal_csl2_control</t>
+        </is>
+      </c>
+      <c r="D2010" s="0" t="inlineStr">
+        <is>
+          <t>CSL2 (Kontrola)</t>
+        </is>
+      </c>
+      <c r="E2010" s="0" t="inlineStr">
+        <is>
+          <t>CSL2(Control)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2011">
+      <c r="A2011" s="0" t="inlineStr">
+        <is>
+          <t>09.07.2020</t>
+        </is>
+      </c>
+      <c r="B2011" s="0" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="C2011" s="0" t="inlineStr">
+        <is>
+          <t>app.order_report.invoice_status.without_or_for_invoice</t>
+        </is>
+      </c>
+      <c r="D2011" s="0" t="inlineStr">
+        <is>
+          <t>Brak lub Do fakturowania</t>
+        </is>
+      </c>
+      <c r="E2011" s="0" t="inlineStr">
+        <is>
+          <t>Without or for invoicing</t>
+        </is>
+      </c>
+    </row>
+    <row r="2012">
+      <c r="A2012" s="0" t="inlineStr">
+        <is>
+          <t>09.07.2020</t>
+        </is>
+      </c>
+      <c r="B2012" s="0" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="C2012" s="0" t="inlineStr">
+        <is>
+          <t>app.order_report.invoice_status.without_or_for_invoice</t>
+        </is>
+      </c>
+      <c r="D2012" s="0" t="inlineStr">
+        <is>
+          <t>Brak lub Do fakturowania</t>
+        </is>
+      </c>
+      <c r="E2012" s="0" t="inlineStr">
+        <is>
+          <t>Without or for invoicing</t>
+        </is>
+      </c>
+    </row>
+    <row r="2013">
+      <c r="A2013" s="0" t="inlineStr">
+        <is>
+          <t>09.07.2020</t>
+        </is>
+      </c>
+      <c r="B2013" s="0" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="C2013" s="0" t="inlineStr">
+        <is>
+          <t>app.order_report.invoice_status.without_or_for_invoice</t>
+        </is>
+      </c>
+      <c r="D2013" s="0" t="inlineStr">
+        <is>
+          <t>Brak lub Do fakturowania</t>
+        </is>
+      </c>
+      <c r="E2013" s="0" t="inlineStr">
+        <is>
+          <t>Without or for invoicing</t>
+        </is>
+      </c>
+    </row>
+    <row r="2014">
+      <c r="A2014" s="0" t="inlineStr">
+        <is>
+          <t>10.07.2020</t>
+        </is>
+      </c>
+      <c r="B2014" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2014" s="0" t="inlineStr">
+        <is>
+          <t>app.invoice_group.pdf.ppm</t>
+        </is>
+      </c>
+      <c r="D2014" s="0" t="inlineStr">
+        <is>
+          <t>PPM</t>
+        </is>
+      </c>
+      <c r="E2014" s="0" t="inlineStr">
+        <is>
+          <t>PPM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2015">
+      <c r="A2015" s="0" t="inlineStr">
+        <is>
+          <t>10.07.2020</t>
+        </is>
+      </c>
+      <c r="B2015" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2015" s="0" t="inlineStr">
+        <is>
+          <t>app.invoice_group.pdf.reports_are_on_latest_pages</t>
+        </is>
+      </c>
+      <c r="D2015" s="0" t="inlineStr">
+        <is>
+          <t>Podsumowanie raportów znajduje się na ostatniej stronie</t>
+        </is>
+      </c>
+      <c r="E2015" s="0" t="inlineStr">
+        <is>
+          <t>Reports summary on last page</t>
+        </is>
+      </c>
+    </row>
+    <row r="2016">
+      <c r="A2016" s="0" t="inlineStr">
+        <is>
+          <t>10.07.2020</t>
+        </is>
+      </c>
+      <c r="B2016" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2016" s="0" t="inlineStr">
+        <is>
+          <t>app.invoice_group.pdf.order_place_of_service_info</t>
+        </is>
+      </c>
+      <c r="D2016" s="0" t="inlineStr">
+        <is>
+          <t>Informacje o Miejscu realizacji usługi</t>
+        </is>
+      </c>
+      <c r="E2016" s="0" t="inlineStr">
+        <is>
+          <t>Information about Place of service</t>
+        </is>
+      </c>
+    </row>
+    <row r="2017">
+      <c r="A2017" s="0" t="inlineStr">
+        <is>
+          <t>10.07.2020</t>
+        </is>
+      </c>
+      <c r="B2017" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2017" s="0" t="inlineStr">
+        <is>
+          <t>app.invoice_group.pdf.order_payer_info</t>
+        </is>
+      </c>
+      <c r="D2017" s="0" t="inlineStr">
+        <is>
+          <t>Informacje o Płatniku</t>
+        </is>
+      </c>
+      <c r="E2017" s="0" t="inlineStr">
+        <is>
+          <t>Information about Payer</t>
+        </is>
+      </c>
+    </row>
+    <row r="2018">
+      <c r="A2018" s="0" t="inlineStr">
+        <is>
+          <t>10.07.2020</t>
+        </is>
+      </c>
+      <c r="B2018" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2018" s="0" t="inlineStr">
+        <is>
+          <t>app.invoice_group.pdf.order_info</t>
+        </is>
+      </c>
+      <c r="D2018" s="0" t="inlineStr">
+        <is>
+          <t>Informacje o zamówieniu</t>
+        </is>
+      </c>
+      <c r="E2018" s="0" t="inlineStr">
+        <is>
+          <t>Information about order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2019">
+      <c r="A2019" s="0" t="inlineStr">
+        <is>
+          <t>10.07.2020</t>
+        </is>
+      </c>
+      <c r="B2019" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2019" s="0" t="inlineStr">
+        <is>
+          <t>app.order.components.no_data</t>
+        </is>
+      </c>
+      <c r="D2019" s="0" t="inlineStr">
+        <is>
+          <t>Brak danych</t>
+        </is>
+      </c>
+      <c r="E2019" s="0" t="inlineStr">
+        <is>
+          <t>No data</t>
+        </is>
+      </c>
+    </row>
+    <row r="2020">
+      <c r="A2020" t="inlineStr">
+        <is>
+          <t>10.07.2020</t>
+        </is>
+      </c>
+      <c r="B2020" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2020" t="inlineStr">
+        <is>
+          <t>app.invoice_group.pdf.components_chart</t>
+        </is>
+      </c>
+      <c r="D2020" t="inlineStr">
+        <is>
+          <t>Całkowita liczba sprawdzonych komponentów</t>
+        </is>
+      </c>
+      <c r="E2020" t="inlineStr">
+        <is>
+          <t>Total number of components checked</t>
         </is>
       </c>
     </row>

--- a/Logs/Keys_changed.xlsx
+++ b/Logs/Keys_changed.xlsx
@@ -644,7 +644,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G2020"/>
+  <dimension ref="A1:G2049"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A1954" activePane="bottomLeft" state="frozen"/>
@@ -57970,29 +57970,852 @@
       </c>
     </row>
     <row r="2020">
-      <c r="A2020" t="inlineStr">
+      <c r="A2020" s="0" t="inlineStr">
         <is>
           <t>10.07.2020</t>
         </is>
       </c>
-      <c r="B2020" t="inlineStr">
-        <is>
-          <t>messages</t>
-        </is>
-      </c>
-      <c r="C2020" t="inlineStr">
+      <c r="B2020" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2020" s="0" t="inlineStr">
         <is>
           <t>app.invoice_group.pdf.components_chart</t>
         </is>
       </c>
-      <c r="D2020" t="inlineStr">
+      <c r="D2020" s="0" t="inlineStr">
         <is>
           <t>Całkowita liczba sprawdzonych komponentów</t>
         </is>
       </c>
-      <c r="E2020" t="inlineStr">
+      <c r="E2020" s="0" t="inlineStr">
         <is>
           <t>Total number of components checked</t>
+        </is>
+      </c>
+    </row>
+    <row r="2021">
+      <c r="A2021" s="0" t="inlineStr">
+        <is>
+          <t>20.07.2020</t>
+        </is>
+      </c>
+      <c r="B2021" s="0" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="C2021" s="0" t="inlineStr">
+        <is>
+          <t>app.invoice_group.is_percent_bonus_ok</t>
+        </is>
+      </c>
+      <c r="D2021" s="0" t="inlineStr">
+        <is>
+          <t>Pokaż tylko grupy z poprawnym bonusem procentowym</t>
+        </is>
+      </c>
+      <c r="E2021" s="0" t="inlineStr">
+        <is>
+          <t>Groups with correct bonus</t>
+        </is>
+      </c>
+      <c r="F2021" s="0" t="inlineStr">
+        <is>
+          <t>Pokaż tylko grupy z poprawnym bonusem procentowym</t>
+        </is>
+      </c>
+      <c r="G2021" s="0" t="inlineStr">
+        <is>
+          <t>Groups with incorrect bonus</t>
+        </is>
+      </c>
+    </row>
+    <row r="2022">
+      <c r="A2022" s="0" t="inlineStr">
+        <is>
+          <t>20.07.2020</t>
+        </is>
+      </c>
+      <c r="B2022" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2022" s="0" t="inlineStr">
+        <is>
+          <t>app.defectiveness.work_week</t>
+        </is>
+      </c>
+      <c r="D2022" s="0" t="inlineStr">
+        <is>
+          <t>ww</t>
+        </is>
+      </c>
+      <c r="E2022" s="0" t="inlineStr">
+        <is>
+          <t>ww</t>
+        </is>
+      </c>
+      <c r="F2022" s="0" t="inlineStr">
+        <is>
+          <t>dzień-tygodnia</t>
+        </is>
+      </c>
+      <c r="G2022" s="0" t="inlineStr">
+        <is>
+          <t>work-week</t>
+        </is>
+      </c>
+    </row>
+    <row r="2023">
+      <c r="A2023" s="0" t="inlineStr">
+        <is>
+          <t>20.07.2020</t>
+        </is>
+      </c>
+      <c r="B2023" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2023" s="0" t="inlineStr">
+        <is>
+          <t>app.defectiveness.work_week</t>
+        </is>
+      </c>
+      <c r="D2023" s="0" t="inlineStr">
+        <is>
+          <t>ww</t>
+        </is>
+      </c>
+      <c r="E2023" s="0" t="inlineStr">
+        <is>
+          <t>ww</t>
+        </is>
+      </c>
+      <c r="F2023" s="0" t="inlineStr">
+        <is>
+          <t>dzień-tygodnia</t>
+        </is>
+      </c>
+      <c r="G2023" s="0" t="inlineStr">
+        <is>
+          <t>work-week</t>
+        </is>
+      </c>
+    </row>
+    <row r="2024">
+      <c r="A2024" s="0" t="inlineStr">
+        <is>
+          <t>20.07.2020</t>
+        </is>
+      </c>
+      <c r="B2024" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2024" s="0" t="inlineStr">
+        <is>
+          <t>app.order_reports_invoice.rate</t>
+        </is>
+      </c>
+      <c r="D2024" s="0" t="inlineStr">
+        <is>
+          <t>Stawka</t>
+        </is>
+      </c>
+      <c r="E2024" s="0" t="inlineStr">
+        <is>
+          <t>Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2025">
+      <c r="A2025" s="0" t="inlineStr">
+        <is>
+          <t>20.07.2020</t>
+        </is>
+      </c>
+      <c r="B2025" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2025" s="0" t="inlineStr">
+        <is>
+          <t>app.defectiveness.work_week</t>
+        </is>
+      </c>
+      <c r="D2025" s="0" t="inlineStr">
+        <is>
+          <t>Tydzień</t>
+        </is>
+      </c>
+      <c r="E2025" s="0" t="inlineStr">
+        <is>
+          <t>Week</t>
+        </is>
+      </c>
+      <c r="F2025" s="0" t="inlineStr">
+        <is>
+          <t>ww</t>
+        </is>
+      </c>
+      <c r="G2025" s="0" t="inlineStr">
+        <is>
+          <t>ww</t>
+        </is>
+      </c>
+    </row>
+    <row r="2026">
+      <c r="A2026" s="0" t="inlineStr">
+        <is>
+          <t>20.07.2020</t>
+        </is>
+      </c>
+      <c r="B2026" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2026" s="0" t="inlineStr">
+        <is>
+          <t>app.order_reports_invoice.sum_up</t>
+        </is>
+      </c>
+      <c r="D2026" s="0" t="inlineStr">
+        <is>
+          <t>Podsumowanie</t>
+        </is>
+      </c>
+      <c r="E2026" s="0" t="inlineStr">
+        <is>
+          <t>Summary</t>
+        </is>
+      </c>
+    </row>
+    <row r="2027">
+      <c r="A2027" s="0" t="inlineStr">
+        <is>
+          <t>20.07.2020</t>
+        </is>
+      </c>
+      <c r="B2027" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2027" s="0" t="inlineStr">
+        <is>
+          <t>app.pdf.generated_at</t>
+        </is>
+      </c>
+      <c r="D2027" s="0" t="inlineStr">
+        <is>
+          <t>Wygenerowano</t>
+        </is>
+      </c>
+      <c r="E2027" s="0" t="inlineStr">
+        <is>
+          <t>Generated at</t>
+        </is>
+      </c>
+    </row>
+    <row r="2028">
+      <c r="A2028" s="0" t="inlineStr">
+        <is>
+          <t>20.07.2020</t>
+        </is>
+      </c>
+      <c r="B2028" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2028" s="0" t="inlineStr">
+        <is>
+          <t>app.reports.summary_order</t>
+        </is>
+      </c>
+      <c r="D2028" s="0" t="inlineStr">
+        <is>
+          <t>Podsumowanie zamówienia</t>
+        </is>
+      </c>
+      <c r="E2028" s="0" t="inlineStr">
+        <is>
+          <t>Order summary</t>
+        </is>
+      </c>
+    </row>
+    <row r="2029">
+      <c r="A2029" s="0" t="inlineStr">
+        <is>
+          <t>20.07.2020</t>
+        </is>
+      </c>
+      <c r="B2029" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2029" s="0" t="inlineStr">
+        <is>
+          <t>app.reports.summary</t>
+        </is>
+      </c>
+      <c r="D2029" s="0" t="inlineStr">
+        <is>
+          <t>Podsumowanie</t>
+        </is>
+      </c>
+      <c r="E2029" s="0" t="inlineStr">
+        <is>
+          <t>Summary</t>
+        </is>
+      </c>
+    </row>
+    <row r="2030">
+      <c r="A2030" s="0" t="inlineStr">
+        <is>
+          <t>20.07.2020</t>
+        </is>
+      </c>
+      <c r="B2030" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2030" s="0" t="inlineStr">
+        <is>
+          <t>app.reports.hours_summary</t>
+        </is>
+      </c>
+      <c r="D2030" s="0" t="inlineStr">
+        <is>
+          <t>Podsumowanie godzin</t>
+        </is>
+      </c>
+      <c r="E2030" s="0" t="inlineStr">
+        <is>
+          <t>Hours summary</t>
+        </is>
+      </c>
+    </row>
+    <row r="2031">
+      <c r="A2031" s="0" t="inlineStr">
+        <is>
+          <t>20.07.2020</t>
+        </is>
+      </c>
+      <c r="B2031" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2031" s="0" t="inlineStr">
+        <is>
+          <t>app.reports.working_hours</t>
+        </is>
+      </c>
+      <c r="D2031" s="0" t="inlineStr">
+        <is>
+          <t>Godziny pracy</t>
+        </is>
+      </c>
+      <c r="E2031" s="0" t="inlineStr">
+        <is>
+          <t>Working hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="2032">
+      <c r="A2032" s="0" t="inlineStr">
+        <is>
+          <t>20.07.2020</t>
+        </is>
+      </c>
+      <c r="B2032" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2032" s="0" t="inlineStr">
+        <is>
+          <t>app.reports.additional_hours</t>
+        </is>
+      </c>
+      <c r="D2032" s="0" t="inlineStr">
+        <is>
+          <t>Godziny dodatkowe</t>
+        </is>
+      </c>
+      <c r="E2032" s="0" t="inlineStr">
+        <is>
+          <t>Additional hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="2033">
+      <c r="A2033" s="0" t="inlineStr">
+        <is>
+          <t>20.07.2020</t>
+        </is>
+      </c>
+      <c r="B2033" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2033" s="0" t="inlineStr">
+        <is>
+          <t>app.pdf.summary_components</t>
+        </is>
+      </c>
+      <c r="D2033" s="0" t="inlineStr">
+        <is>
+          <t>Podsumowanie komponentów</t>
+        </is>
+      </c>
+      <c r="E2033" s="0" t="inlineStr">
+        <is>
+          <t>Components summary</t>
+        </is>
+      </c>
+    </row>
+    <row r="2034">
+      <c r="A2034" s="0" t="inlineStr">
+        <is>
+          <t>20.07.2020</t>
+        </is>
+      </c>
+      <c r="B2034" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2034" s="0" t="inlineStr">
+        <is>
+          <t>app.reports.overview_of_components_data</t>
+        </is>
+      </c>
+      <c r="D2034" s="0" t="inlineStr">
+        <is>
+          <t>Podgląd informacji o komponentach</t>
+        </is>
+      </c>
+      <c r="E2034" s="0" t="inlineStr">
+        <is>
+          <t>Components overview data</t>
+        </is>
+      </c>
+    </row>
+    <row r="2035">
+      <c r="A2035" s="0" t="inlineStr">
+        <is>
+          <t>20.07.2020</t>
+        </is>
+      </c>
+      <c r="B2035" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2035" s="0" t="inlineStr">
+        <is>
+          <t>app.reports.chart_total_amount_of_checked_components</t>
+        </is>
+      </c>
+      <c r="D2035" s="0" t="inlineStr">
+        <is>
+          <t>Całkowita liczba sprawdzonych komponentów</t>
+        </is>
+      </c>
+      <c r="E2035" s="0" t="inlineStr">
+        <is>
+          <t>Total number of components checked</t>
+        </is>
+      </c>
+    </row>
+    <row r="2036">
+      <c r="A2036" s="0" t="inlineStr">
+        <is>
+          <t>20.07.2020</t>
+        </is>
+      </c>
+      <c r="B2036" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2036" s="0" t="inlineStr">
+        <is>
+          <t>app.reports.date_defectiveness</t>
+        </is>
+      </c>
+      <c r="D2036" s="0" t="inlineStr">
+        <is>
+          <t>Wadliwości wg daty</t>
+        </is>
+      </c>
+      <c r="E2036" s="0" t="inlineStr">
+        <is>
+          <t>Defectiveness by date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2037">
+      <c r="A2037" s="0" t="inlineStr">
+        <is>
+          <t>20.07.2020</t>
+        </is>
+      </c>
+      <c r="B2037" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2037" s="0" t="inlineStr">
+        <is>
+          <t>app.reports.pareto_base</t>
+        </is>
+      </c>
+      <c r="D2037" s="0" t="inlineStr">
+        <is>
+          <t>Pareto wad</t>
+        </is>
+      </c>
+      <c r="E2037" s="0" t="inlineStr">
+        <is>
+          <t>Defects pareto</t>
+        </is>
+      </c>
+    </row>
+    <row r="2038">
+      <c r="A2038" s="0" t="inlineStr">
+        <is>
+          <t>20.07.2020</t>
+        </is>
+      </c>
+      <c r="B2038" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2038" s="0" t="inlineStr">
+        <is>
+          <t>app.reports.pareto_defects</t>
+        </is>
+      </c>
+      <c r="D2038" s="0" t="inlineStr">
+        <is>
+          <t>Pareto wad</t>
+        </is>
+      </c>
+      <c r="E2038" s="0" t="inlineStr">
+        <is>
+          <t>Defects pareto</t>
+        </is>
+      </c>
+    </row>
+    <row r="2039">
+      <c r="A2039" s="0" t="inlineStr">
+        <is>
+          <t>20.07.2020</t>
+        </is>
+      </c>
+      <c r="B2039" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2039" s="0" t="inlineStr">
+        <is>
+          <t>app.invoice_group.draft</t>
+        </is>
+      </c>
+      <c r="D2039" s="0" t="inlineStr">
+        <is>
+          <t>Wersja robocza</t>
+        </is>
+      </c>
+      <c r="E2039" s="0" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+    </row>
+    <row r="2040">
+      <c r="A2040" s="0" t="inlineStr">
+        <is>
+          <t>20.07.2020</t>
+        </is>
+      </c>
+      <c r="B2040" s="0" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="C2040" s="0" t="inlineStr">
+        <is>
+          <t>app.invoice_group.draft</t>
+        </is>
+      </c>
+      <c r="D2040" s="0" t="inlineStr">
+        <is>
+          <t>Wersja robocza</t>
+        </is>
+      </c>
+      <c r="E2040" s="0" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+    </row>
+    <row r="2041">
+      <c r="A2041" s="0" t="inlineStr">
+        <is>
+          <t>20.07.2020</t>
+        </is>
+      </c>
+      <c r="B2041" s="0" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="C2041" s="0" t="inlineStr">
+        <is>
+          <t>app.invoice_group.save_and_send</t>
+        </is>
+      </c>
+      <c r="D2041" s="0" t="inlineStr">
+        <is>
+          <t>Zapisz i wyślij</t>
+        </is>
+      </c>
+      <c r="E2041" s="0" t="inlineStr">
+        <is>
+          <t>Save and send</t>
+        </is>
+      </c>
+    </row>
+    <row r="2042">
+      <c r="A2042" s="0" t="inlineStr">
+        <is>
+          <t>20.07.2020</t>
+        </is>
+      </c>
+      <c r="B2042" s="0" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="C2042" s="0" t="inlineStr">
+        <is>
+          <t>app.invoice_group.save_draft</t>
+        </is>
+      </c>
+      <c r="D2042" s="0" t="inlineStr">
+        <is>
+          <t>Zapisz wersję roboczą</t>
+        </is>
+      </c>
+      <c r="E2042" s="0" t="inlineStr">
+        <is>
+          <t>Save draft</t>
+        </is>
+      </c>
+    </row>
+    <row r="2043">
+      <c r="A2043" s="0" t="inlineStr">
+        <is>
+          <t>20.07.2020</t>
+        </is>
+      </c>
+      <c r="B2043" s="0" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="C2043" s="0" t="inlineStr">
+        <is>
+          <t>app.invoice_group.is_draft</t>
+        </is>
+      </c>
+      <c r="D2043" s="0" t="inlineStr">
+        <is>
+          <t>Wersje robocze</t>
+        </is>
+      </c>
+      <c r="E2043" s="0" t="inlineStr">
+        <is>
+          <t>Drafts</t>
+        </is>
+      </c>
+    </row>
+    <row r="2044">
+      <c r="A2044" s="0" t="inlineStr">
+        <is>
+          <t>20.07.2020</t>
+        </is>
+      </c>
+      <c r="B2044" s="0" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="C2044" s="0" t="inlineStr">
+        <is>
+          <t>app.pdf.overview_of_components_defectiveness</t>
+        </is>
+      </c>
+      <c r="D2044" s="0" t="inlineStr">
+        <is>
+          <t>Podsumowanie wadliwości komponentów</t>
+        </is>
+      </c>
+      <c r="E2044" s="0" t="inlineStr">
+        <is>
+          <t>Components defectivneness overview</t>
+        </is>
+      </c>
+    </row>
+    <row r="2045">
+      <c r="A2045" s="0" t="inlineStr">
+        <is>
+          <t>20.07.2020</t>
+        </is>
+      </c>
+      <c r="B2045" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2045" s="0" t="inlineStr">
+        <is>
+          <t>app.reports.via_compoenent_defectiveness</t>
+        </is>
+      </c>
+      <c r="D2045" s="0" t="inlineStr">
+        <is>
+          <t>Wadliwość komponentów</t>
+        </is>
+      </c>
+      <c r="E2045" s="0" t="inlineStr">
+        <is>
+          <t>Components defectiveness</t>
+        </is>
+      </c>
+    </row>
+    <row r="2046">
+      <c r="A2046" s="0" t="inlineStr">
+        <is>
+          <t>20.07.2020</t>
+        </is>
+      </c>
+      <c r="B2046" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2046" s="0" t="inlineStr">
+        <is>
+          <t>app.pdf.overview_of_components_defectiveness</t>
+        </is>
+      </c>
+      <c r="D2046" s="0" t="inlineStr">
+        <is>
+          <t>Podgląd wadliwości komponentów</t>
+        </is>
+      </c>
+      <c r="E2046" s="0" t="inlineStr">
+        <is>
+          <t>Overview of components defectiveness</t>
+        </is>
+      </c>
+    </row>
+    <row r="2047">
+      <c r="A2047" s="0" t="inlineStr">
+        <is>
+          <t>20.07.2020</t>
+        </is>
+      </c>
+      <c r="B2047" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2047" s="0" t="inlineStr">
+        <is>
+          <t>app.reports.invoice_data_xls.net_value_sum</t>
+        </is>
+      </c>
+      <c r="D2047" s="0" t="inlineStr">
+        <is>
+          <t>Suma</t>
+        </is>
+      </c>
+      <c r="E2047" s="0" t="inlineStr">
+        <is>
+          <t>Sum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2048">
+      <c r="A2048" s="0" t="inlineStr">
+        <is>
+          <t>20.07.2020</t>
+        </is>
+      </c>
+      <c r="B2048" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2048" s="0" t="inlineStr">
+        <is>
+          <t>app.reports.invoice_data_xls.net_value_sum</t>
+        </is>
+      </c>
+      <c r="D2048" s="0" t="inlineStr">
+        <is>
+          <t>Suma</t>
+        </is>
+      </c>
+      <c r="E2048" s="0" t="inlineStr">
+        <is>
+          <t>Sum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2049">
+      <c r="A2049" t="inlineStr">
+        <is>
+          <t>20.07.2020</t>
+        </is>
+      </c>
+      <c r="B2049" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="C2049" t="inlineStr">
+        <is>
+          <t>app.invoice_group.save_alert_text</t>
+        </is>
+      </c>
+      <c r="D2049" t="inlineStr">
+        <is>
+          <t>Grupa fakturowa będzie zapisana i powiadomienie zostanie wysłane do płatnika.</t>
+        </is>
+      </c>
+      <c r="E2049" t="inlineStr">
+        <is>
+          <t>Invoice group will be saved and notification will be sent to payer.</t>
         </is>
       </c>
     </row>

--- a/Logs/Keys_changed.xlsx
+++ b/Logs/Keys_changed.xlsx
@@ -644,7 +644,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G2049"/>
+  <dimension ref="A1:G2050"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A1954" activePane="bottomLeft" state="frozen"/>
@@ -58793,29 +58793,66 @@
       </c>
     </row>
     <row r="2049">
-      <c r="A2049" t="inlineStr">
+      <c r="A2049" s="0" t="inlineStr">
         <is>
           <t>20.07.2020</t>
         </is>
       </c>
-      <c r="B2049" t="inlineStr">
-        <is>
-          <t>forms</t>
-        </is>
-      </c>
-      <c r="C2049" t="inlineStr">
+      <c r="B2049" s="0" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="C2049" s="0" t="inlineStr">
         <is>
           <t>app.invoice_group.save_alert_text</t>
         </is>
       </c>
-      <c r="D2049" t="inlineStr">
+      <c r="D2049" s="0" t="inlineStr">
         <is>
           <t>Grupa fakturowa będzie zapisana i powiadomienie zostanie wysłane do płatnika.</t>
         </is>
       </c>
-      <c r="E2049" t="inlineStr">
+      <c r="E2049" s="0" t="inlineStr">
         <is>
           <t>Invoice group will be saved and notification will be sent to payer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2050">
+      <c r="A2050" t="inlineStr">
+        <is>
+          <t>21.07.2020</t>
+        </is>
+      </c>
+      <c r="B2050" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2050" t="inlineStr">
+        <is>
+          <t>app.order_reports_invoice.currency</t>
+        </is>
+      </c>
+      <c r="D2050" t="inlineStr">
+        <is>
+          <t>Waluta</t>
+        </is>
+      </c>
+      <c r="E2050" t="inlineStr">
+        <is>
+          <t>Currency</t>
+        </is>
+      </c>
+      <c r="F2050" t="inlineStr">
+        <is>
+          <t>Waluta z cennika</t>
+        </is>
+      </c>
+      <c r="G2050" t="inlineStr">
+        <is>
+          <t>Currency from pricing</t>
         </is>
       </c>
     </row>

--- a/Logs/Keys_changed.xlsx
+++ b/Logs/Keys_changed.xlsx
@@ -576,7 +576,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G1983"/>
+  <dimension ref="A1:G1986"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A1954" activePane="bottomLeft" state="frozen"/>
@@ -56813,39 +56813,150 @@
       </c>
     </row>
     <row r="1983">
-      <c r="A1983" t="inlineStr">
+      <c r="A1983" s="0" t="inlineStr">
         <is>
           <t>07/03/20</t>
         </is>
       </c>
-      <c r="B1983" t="inlineStr">
-        <is>
-          <t>messages</t>
-        </is>
-      </c>
-      <c r="C1983" t="inlineStr">
+      <c r="B1983" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C1983" s="0" t="inlineStr">
         <is>
           <t>app.company.fixed_costs.type.coordinator</t>
         </is>
       </c>
-      <c r="D1983" t="inlineStr">
+      <c r="D1983" s="0" t="inlineStr">
         <is>
           <t>Koordynator</t>
         </is>
       </c>
-      <c r="E1983" t="inlineStr">
+      <c r="E1983" s="0" t="inlineStr">
         <is>
           <t>Coordinator</t>
         </is>
       </c>
-      <c r="F1983" t="inlineStr">
+      <c r="F1983" s="0" t="inlineStr">
         <is>
           <t>Koordynator</t>
         </is>
       </c>
-      <c r="G1983" t="inlineStr">
+      <c r="G1983" s="0" t="inlineStr">
         <is>
           <t>Coordindator</t>
+        </is>
+      </c>
+    </row>
+    <row r="1984">
+      <c r="A1984" s="0" t="inlineStr">
+        <is>
+          <t>07/27/20</t>
+        </is>
+      </c>
+      <c r="B1984" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C1984" s="0" t="inlineStr">
+        <is>
+          <t>app.order.close.cost.net_value_per_unit</t>
+        </is>
+      </c>
+      <c r="D1984" s="0" t="inlineStr">
+        <is>
+          <t>Stawka</t>
+        </is>
+      </c>
+      <c r="E1984" s="0" t="inlineStr">
+        <is>
+          <t>Rate</t>
+        </is>
+      </c>
+      <c r="F1984" s="0" t="inlineStr">
+        <is>
+          <t>Wartość za sztukę</t>
+        </is>
+      </c>
+      <c r="G1984" s="0" t="inlineStr">
+        <is>
+          <t>Value per unit</t>
+        </is>
+      </c>
+    </row>
+    <row r="1985">
+      <c r="A1985" s="0" t="inlineStr">
+        <is>
+          <t>07/27/20</t>
+        </is>
+      </c>
+      <c r="B1985" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C1985" s="0" t="inlineStr">
+        <is>
+          <t>app.reports.invoice_data_xls.net_value_per_unit</t>
+        </is>
+      </c>
+      <c r="D1985" s="0" t="inlineStr">
+        <is>
+          <t>Stawka</t>
+        </is>
+      </c>
+      <c r="E1985" s="0" t="inlineStr">
+        <is>
+          <t>Rate</t>
+        </is>
+      </c>
+      <c r="F1985" s="0" t="inlineStr">
+        <is>
+          <t>Wartość za sztukę</t>
+        </is>
+      </c>
+      <c r="G1985" s="0" t="inlineStr">
+        <is>
+          <t>Value per unit</t>
+        </is>
+      </c>
+    </row>
+    <row r="1986">
+      <c r="A1986" t="inlineStr">
+        <is>
+          <t>07/27/20</t>
+        </is>
+      </c>
+      <c r="B1986" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C1986" t="inlineStr">
+        <is>
+          <t>app.order_reports_invoice.net_value_per_unit</t>
+        </is>
+      </c>
+      <c r="D1986" t="inlineStr">
+        <is>
+          <t>Stawka</t>
+        </is>
+      </c>
+      <c r="E1986" t="inlineStr">
+        <is>
+          <t>Rate</t>
+        </is>
+      </c>
+      <c r="F1986" t="inlineStr">
+        <is>
+          <t>Wartość za sztukę</t>
+        </is>
+      </c>
+      <c r="G1986" t="inlineStr">
+        <is>
+          <t>Value per unit</t>
         </is>
       </c>
     </row>

--- a/Logs/Keys_changed.xlsx
+++ b/Logs/Keys_changed.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Arkusz1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -269,6 +269,74 @@
       </fill>
     </dxf>
   </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -571,12 +639,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G1986"/>
+  <dimension ref="A1:G2000"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A1954" activePane="bottomLeft" state="frozen"/>
@@ -56924,39 +56992,557 @@
       </c>
     </row>
     <row r="1986">
-      <c r="A1986" t="inlineStr">
+      <c r="A1986" s="0" t="inlineStr">
         <is>
           <t>07/27/20</t>
         </is>
       </c>
-      <c r="B1986" t="inlineStr">
-        <is>
-          <t>messages</t>
-        </is>
-      </c>
-      <c r="C1986" t="inlineStr">
+      <c r="B1986" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C1986" s="0" t="inlineStr">
         <is>
           <t>app.order_reports_invoice.net_value_per_unit</t>
         </is>
       </c>
-      <c r="D1986" t="inlineStr">
+      <c r="D1986" s="0" t="inlineStr">
         <is>
           <t>Stawka</t>
         </is>
       </c>
-      <c r="E1986" t="inlineStr">
+      <c r="E1986" s="0" t="inlineStr">
         <is>
           <t>Rate</t>
         </is>
       </c>
-      <c r="F1986" t="inlineStr">
+      <c r="F1986" s="0" t="inlineStr">
         <is>
           <t>Wartość za sztukę</t>
         </is>
       </c>
-      <c r="G1986" t="inlineStr">
+      <c r="G1986" s="0" t="inlineStr">
         <is>
           <t>Value per unit</t>
+        </is>
+      </c>
+    </row>
+    <row r="1987">
+      <c r="A1987" s="0" t="inlineStr">
+        <is>
+          <t>28.07.2020</t>
+        </is>
+      </c>
+      <c r="B1987" s="0" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="C1987" s="0" t="inlineStr">
+        <is>
+          <t>app.order_report.generated_report.defective_parts_non_optimised_percent</t>
+        </is>
+      </c>
+      <c r="D1987" s="0" t="inlineStr">
+        <is>
+          <t>Wadliwość (Not reworked)</t>
+        </is>
+      </c>
+      <c r="E1987" s="0" t="inlineStr">
+        <is>
+          <t>Defectiveness (Not reworked)</t>
+        </is>
+      </c>
+      <c r="F1987" s="0" t="inlineStr">
+        <is>
+          <t>% wadliwych komponentów (Not reworked)</t>
+        </is>
+      </c>
+      <c r="G1987" s="0" t="inlineStr">
+        <is>
+          <t>Not reworked</t>
+        </is>
+      </c>
+    </row>
+    <row r="1988">
+      <c r="A1988" s="0" t="inlineStr">
+        <is>
+          <t>29.07.2020</t>
+        </is>
+      </c>
+      <c r="B1988" s="0" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="C1988" s="0" t="inlineStr">
+        <is>
+          <t>app.order_report.generated_report.defective_parts_non_optimised_percent</t>
+        </is>
+      </c>
+      <c r="D1988" s="0" t="inlineStr">
+        <is>
+          <t>Wadliwość (Not reworked)</t>
+        </is>
+      </c>
+      <c r="E1988" s="0" t="inlineStr">
+        <is>
+          <t>Defectiveness (Not reworked)</t>
+        </is>
+      </c>
+      <c r="F1988" s="0" t="inlineStr">
+        <is>
+          <t>% wadliwych komponentów (Not reworked)</t>
+        </is>
+      </c>
+      <c r="G1988" s="0" t="inlineStr">
+        <is>
+          <t>Not reworked</t>
+        </is>
+      </c>
+    </row>
+    <row r="1989">
+      <c r="A1989" s="0" t="inlineStr">
+        <is>
+          <t>29.07.2020</t>
+        </is>
+      </c>
+      <c r="B1989" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C1989" s="0" t="inlineStr">
+        <is>
+          <t>app.order_report.generated_report.defective_parts_non_optimised_percent</t>
+        </is>
+      </c>
+      <c r="D1989" s="0" t="inlineStr">
+        <is>
+          <t>Wadliwość (Not reworked)</t>
+        </is>
+      </c>
+      <c r="E1989" s="0" t="inlineStr">
+        <is>
+          <t>Defectiveness (Not reworked)</t>
+        </is>
+      </c>
+      <c r="F1989" s="0" t="inlineStr">
+        <is>
+          <t>% wadliwych komponentów (Not reworked)</t>
+        </is>
+      </c>
+      <c r="G1989" s="0" t="inlineStr">
+        <is>
+          <t>Not reworked</t>
+        </is>
+      </c>
+    </row>
+    <row r="1990">
+      <c r="A1990" s="0" t="inlineStr">
+        <is>
+          <t>29.07.2020</t>
+        </is>
+      </c>
+      <c r="B1990" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C1990" s="0" t="inlineStr">
+        <is>
+          <t>app.order_report.generated_report.defective_parts_percent</t>
+        </is>
+      </c>
+      <c r="D1990" s="0" t="inlineStr">
+        <is>
+          <t>Wadliwość (NOK)</t>
+        </is>
+      </c>
+      <c r="E1990" s="0" t="inlineStr">
+        <is>
+          <t>Defectiveness (NOK)</t>
+        </is>
+      </c>
+      <c r="F1990" s="0" t="inlineStr">
+        <is>
+          <t>% wadliwych komponentów (NOK)</t>
+        </is>
+      </c>
+      <c r="G1990" s="0" t="inlineStr">
+        <is>
+          <t>Defective components (NOK) %</t>
+        </is>
+      </c>
+    </row>
+    <row r="1991">
+      <c r="A1991" s="0" t="inlineStr">
+        <is>
+          <t>29.07.2020</t>
+        </is>
+      </c>
+      <c r="B1991" s="0" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="C1991" s="0" t="inlineStr">
+        <is>
+          <t>app.order_report.generated_report.defective_parts_percent</t>
+        </is>
+      </c>
+      <c r="D1991" s="0" t="inlineStr">
+        <is>
+          <t>Wadliwość (NOK)</t>
+        </is>
+      </c>
+      <c r="E1991" s="0" t="inlineStr">
+        <is>
+          <t>Defectiveness (NOK)</t>
+        </is>
+      </c>
+      <c r="F1991" s="0" t="inlineStr">
+        <is>
+          <t>% wadliwych komponentów (NOK)</t>
+        </is>
+      </c>
+      <c r="G1991" s="0" t="inlineStr">
+        <is>
+          <t>Defective components (NOK) %</t>
+        </is>
+      </c>
+    </row>
+    <row r="1992">
+      <c r="A1992" s="0" t="inlineStr">
+        <is>
+          <t>29.07.2020</t>
+        </is>
+      </c>
+      <c r="B1992" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C1992" s="0" t="inlineStr">
+        <is>
+          <t>app.order_report.generated_report.defective_parts_percent</t>
+        </is>
+      </c>
+      <c r="D1992" s="0" t="inlineStr">
+        <is>
+          <t>Wadliwość (NOK)</t>
+        </is>
+      </c>
+      <c r="E1992" s="0" t="inlineStr">
+        <is>
+          <t>Defectiveness (NOK)</t>
+        </is>
+      </c>
+      <c r="F1992" s="0" t="inlineStr">
+        <is>
+          <t>% wadliwych komponentów (NOK)</t>
+        </is>
+      </c>
+      <c r="G1992" s="0" t="inlineStr">
+        <is>
+          <t>Defective components (NOK) %</t>
+        </is>
+      </c>
+    </row>
+    <row r="1993">
+      <c r="A1993" s="0" t="inlineStr">
+        <is>
+          <t>29.07.2020</t>
+        </is>
+      </c>
+      <c r="B1993" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C1993" s="0" t="inlineStr">
+        <is>
+          <t>app.order_report.row.total_defective_parts</t>
+        </is>
+      </c>
+      <c r="D1993" s="0" t="inlineStr">
+        <is>
+          <t>Wadliwe</t>
+        </is>
+      </c>
+      <c r="E1993" s="0" t="inlineStr">
+        <is>
+          <t>Defective</t>
+        </is>
+      </c>
+      <c r="F1993" s="0" t="inlineStr">
+        <is>
+          <t>Suma wadliwych komponentów</t>
+        </is>
+      </c>
+      <c r="G1993" s="0" t="inlineStr">
+        <is>
+          <t>Total defect components</t>
+        </is>
+      </c>
+    </row>
+    <row r="1994">
+      <c r="A1994" s="0" t="inlineStr">
+        <is>
+          <t>29.07.2020</t>
+        </is>
+      </c>
+      <c r="B1994" s="0" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="C1994" s="0" t="inlineStr">
+        <is>
+          <t>app.order_report.row.total_defective_parts</t>
+        </is>
+      </c>
+      <c r="D1994" s="0" t="inlineStr">
+        <is>
+          <t>Wadliwe</t>
+        </is>
+      </c>
+      <c r="E1994" s="0" t="inlineStr">
+        <is>
+          <t>Defective</t>
+        </is>
+      </c>
+      <c r="F1994" s="0" t="inlineStr">
+        <is>
+          <t>Suma wadliwych komponentów</t>
+        </is>
+      </c>
+      <c r="G1994" s="0" t="inlineStr">
+        <is>
+          <t>Total defect components</t>
+        </is>
+      </c>
+    </row>
+    <row r="1995">
+      <c r="A1995" s="0" t="inlineStr">
+        <is>
+          <t>29.07.2020</t>
+        </is>
+      </c>
+      <c r="B1995" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C1995" s="0" t="inlineStr">
+        <is>
+          <t>app.order_report.row.total_correct_parts</t>
+        </is>
+      </c>
+      <c r="D1995" s="0" t="inlineStr">
+        <is>
+          <t>Poprawne</t>
+        </is>
+      </c>
+      <c r="E1995" s="0" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+      <c r="F1995" s="0" t="inlineStr">
+        <is>
+          <t>Ilość poprawnych komponentów</t>
+        </is>
+      </c>
+      <c r="G1995" s="0" t="inlineStr">
+        <is>
+          <t>Total correct components</t>
+        </is>
+      </c>
+    </row>
+    <row r="1996">
+      <c r="A1996" s="0" t="inlineStr">
+        <is>
+          <t>29.07.2020</t>
+        </is>
+      </c>
+      <c r="B1996" s="0" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="C1996" s="0" t="inlineStr">
+        <is>
+          <t>app.order_report.row.total_correct_parts</t>
+        </is>
+      </c>
+      <c r="D1996" s="0" t="inlineStr">
+        <is>
+          <t>Poprawne</t>
+        </is>
+      </c>
+      <c r="E1996" s="0" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+      <c r="F1996" s="0" t="inlineStr">
+        <is>
+          <t>Ilość poprawnych komponentów</t>
+        </is>
+      </c>
+      <c r="G1996" s="0" t="inlineStr">
+        <is>
+          <t>Total correct components</t>
+        </is>
+      </c>
+    </row>
+    <row r="1997">
+      <c r="A1997" s="0" t="inlineStr">
+        <is>
+          <t>29.07.2020</t>
+        </is>
+      </c>
+      <c r="B1997" s="0" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="C1997" s="0" t="inlineStr">
+        <is>
+          <t>app.order_report.row.total_correct_parts</t>
+        </is>
+      </c>
+      <c r="D1997" s="0" t="inlineStr">
+        <is>
+          <t>Poprawne</t>
+        </is>
+      </c>
+      <c r="E1997" s="0" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+      <c r="F1997" s="0" t="inlineStr">
+        <is>
+          <t>Ilość poprawnych komponentów</t>
+        </is>
+      </c>
+      <c r="G1997" s="0" t="inlineStr">
+        <is>
+          <t>Total correct components</t>
+        </is>
+      </c>
+    </row>
+    <row r="1998">
+      <c r="A1998" s="0" t="inlineStr">
+        <is>
+          <t>29.07.2020</t>
+        </is>
+      </c>
+      <c r="B1998" s="0" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="C1998" s="0" t="inlineStr">
+        <is>
+          <t>app.order_report.row.not_repaired_parts</t>
+        </is>
+      </c>
+      <c r="D1998" s="0" t="inlineStr">
+        <is>
+          <t>Not reworked</t>
+        </is>
+      </c>
+      <c r="E1998" s="0" t="inlineStr">
+        <is>
+          <t>Not reworked</t>
+        </is>
+      </c>
+      <c r="F1998" s="0" t="inlineStr">
+        <is>
+          <t>Not reworked (ilość komponentów)</t>
+        </is>
+      </c>
+      <c r="G1998" s="0" t="inlineStr">
+        <is>
+          <t>Components not reworked</t>
+        </is>
+      </c>
+    </row>
+    <row r="1999">
+      <c r="A1999" s="0" t="inlineStr">
+        <is>
+          <t>29.07.2020</t>
+        </is>
+      </c>
+      <c r="B1999" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C1999" s="0" t="inlineStr">
+        <is>
+          <t>app.order_report.row.not_repaired_parts</t>
+        </is>
+      </c>
+      <c r="D1999" s="0" t="inlineStr">
+        <is>
+          <t>Not reworked</t>
+        </is>
+      </c>
+      <c r="E1999" s="0" t="inlineStr">
+        <is>
+          <t>Not reworked</t>
+        </is>
+      </c>
+      <c r="F1999" s="0" t="inlineStr">
+        <is>
+          <t>Not reworked (ilość komponentów)</t>
+        </is>
+      </c>
+      <c r="G1999" s="0" t="inlineStr">
+        <is>
+          <t>Components not reworked</t>
+        </is>
+      </c>
+    </row>
+    <row r="2000">
+      <c r="A2000" t="inlineStr">
+        <is>
+          <t>29.07.2020</t>
+        </is>
+      </c>
+      <c r="B2000" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2000" t="inlineStr">
+        <is>
+          <t>app.order_report.row.not_repaired_parts</t>
+        </is>
+      </c>
+      <c r="D2000" t="inlineStr">
+        <is>
+          <t>Not reworked</t>
+        </is>
+      </c>
+      <c r="E2000" t="inlineStr">
+        <is>
+          <t>Not reworked</t>
+        </is>
+      </c>
+      <c r="F2000" t="inlineStr">
+        <is>
+          <t>Not reworked (ilość komponentów)</t>
+        </is>
+      </c>
+      <c r="G2000" t="inlineStr">
+        <is>
+          <t>Components not reworked</t>
         </is>
       </c>
     </row>
@@ -56976,7 +57562,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Logs/Keys_changed.xlsx
+++ b/Logs/Keys_changed.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Arkusz1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -639,12 +639,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G2000"/>
+  <dimension ref="A1:G2027"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A1954" activePane="bottomLeft" state="frozen"/>
@@ -57510,39 +57510,768 @@
       </c>
     </row>
     <row r="2000">
-      <c r="A2000" t="inlineStr">
+      <c r="A2000" s="0" t="inlineStr">
         <is>
           <t>29.07.2020</t>
         </is>
       </c>
-      <c r="B2000" t="inlineStr">
-        <is>
-          <t>messages</t>
-        </is>
-      </c>
-      <c r="C2000" t="inlineStr">
+      <c r="B2000" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2000" s="0" t="inlineStr">
         <is>
           <t>app.order_report.row.not_repaired_parts</t>
         </is>
       </c>
-      <c r="D2000" t="inlineStr">
+      <c r="D2000" s="0" t="inlineStr">
         <is>
           <t>Not reworked</t>
         </is>
       </c>
-      <c r="E2000" t="inlineStr">
+      <c r="E2000" s="0" t="inlineStr">
         <is>
           <t>Not reworked</t>
         </is>
       </c>
-      <c r="F2000" t="inlineStr">
+      <c r="F2000" s="0" t="inlineStr">
         <is>
           <t>Not reworked (ilość komponentów)</t>
         </is>
       </c>
-      <c r="G2000" t="inlineStr">
+      <c r="G2000" s="0" t="inlineStr">
         <is>
           <t>Components not reworked</t>
+        </is>
+      </c>
+    </row>
+    <row r="2001">
+      <c r="A2001" s="0" t="inlineStr">
+        <is>
+          <t>08/05/20</t>
+        </is>
+      </c>
+      <c r="B2001" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2001" s="0" t="inlineStr">
+        <is>
+          <t>app.company.days_for_disable_reports</t>
+        </is>
+      </c>
+      <c r="D2001" s="0" t="inlineStr">
+        <is>
+          <t>Czas do wyłączenia możliwości dodawania raportów</t>
+        </is>
+      </c>
+      <c r="E2001" s="0" t="inlineStr">
+        <is>
+          <t>Time to disable ability to add reports</t>
+        </is>
+      </c>
+    </row>
+    <row r="2002">
+      <c r="A2002" s="0" t="inlineStr">
+        <is>
+          <t>08/05/20</t>
+        </is>
+      </c>
+      <c r="B2002" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2002" s="0" t="inlineStr">
+        <is>
+          <t>app.order_reports_invoice.discounts</t>
+        </is>
+      </c>
+      <c r="D2002" s="0" t="inlineStr">
+        <is>
+          <t>Rabaty</t>
+        </is>
+      </c>
+      <c r="E2002" s="0" t="inlineStr">
+        <is>
+          <t>Discounts</t>
+        </is>
+      </c>
+    </row>
+    <row r="2003">
+      <c r="A2003" s="0" t="inlineStr">
+        <is>
+          <t>08/05/20</t>
+        </is>
+      </c>
+      <c r="B2003" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2003" s="0" t="inlineStr">
+        <is>
+          <t>app.order_reports_invoice.discount.add</t>
+        </is>
+      </c>
+      <c r="D2003" s="0" t="inlineStr">
+        <is>
+          <t>Dodaj</t>
+        </is>
+      </c>
+      <c r="E2003" s="0" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+    </row>
+    <row r="2004">
+      <c r="A2004" s="0" t="inlineStr">
+        <is>
+          <t>08/05/20</t>
+        </is>
+      </c>
+      <c r="B2004" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2004" s="0" t="inlineStr">
+        <is>
+          <t>app.actions.invoice_group.comment</t>
+        </is>
+      </c>
+      <c r="D2004" s="0" t="inlineStr">
+        <is>
+          <t>Komentarz</t>
+        </is>
+      </c>
+      <c r="E2004" s="0" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+    </row>
+    <row r="2005">
+      <c r="A2005" s="0" t="inlineStr">
+        <is>
+          <t>08/05/20</t>
+        </is>
+      </c>
+      <c r="B2005" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2005" s="0" t="inlineStr">
+        <is>
+          <t>app.invoice_group.save_and_send</t>
+        </is>
+      </c>
+      <c r="D2005" s="0" t="inlineStr">
+        <is>
+          <t>Zapisz i wyślij</t>
+        </is>
+      </c>
+      <c r="E2005" s="0" t="inlineStr">
+        <is>
+          <t>Save and send</t>
+        </is>
+      </c>
+    </row>
+    <row r="2006">
+      <c r="A2006" s="0" t="inlineStr">
+        <is>
+          <t>08/05/20</t>
+        </is>
+      </c>
+      <c r="B2006" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2006" s="0" t="inlineStr">
+        <is>
+          <t>app.invoice_group_discount.add_discount</t>
+        </is>
+      </c>
+      <c r="D2006" s="0" t="inlineStr">
+        <is>
+          <t>Dodaj rabat</t>
+        </is>
+      </c>
+      <c r="E2006" s="0" t="inlineStr">
+        <is>
+          <t>Add discount</t>
+        </is>
+      </c>
+    </row>
+    <row r="2007">
+      <c r="A2007" s="0" t="inlineStr">
+        <is>
+          <t>08/05/20</t>
+        </is>
+      </c>
+      <c r="B2007" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2007" s="0" t="inlineStr">
+        <is>
+          <t>app.invoice_group.update_confirm</t>
+        </is>
+      </c>
+      <c r="D2007" s="0" t="inlineStr">
+        <is>
+          <t>Potwierdź aktualizację</t>
+        </is>
+      </c>
+      <c r="E2007" s="0" t="inlineStr">
+        <is>
+          <t>Confirm update</t>
+        </is>
+      </c>
+    </row>
+    <row r="2008">
+      <c r="A2008" s="0" t="inlineStr">
+        <is>
+          <t>08/05/20</t>
+        </is>
+      </c>
+      <c r="B2008" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2008" s="0" t="inlineStr">
+        <is>
+          <t>app.invoice_group.pdf.min_service_date</t>
+        </is>
+      </c>
+      <c r="D2008" s="0" t="inlineStr">
+        <is>
+          <t>Minimalna Data realizacji</t>
+        </is>
+      </c>
+      <c r="E2008" s="0" t="inlineStr">
+        <is>
+          <t>Minimal service date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2009">
+      <c r="A2009" s="0" t="inlineStr">
+        <is>
+          <t>08/05/20</t>
+        </is>
+      </c>
+      <c r="B2009" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2009" s="0" t="inlineStr">
+        <is>
+          <t>app.invoice_group.pdf.max_service_date</t>
+        </is>
+      </c>
+      <c r="D2009" s="0" t="inlineStr">
+        <is>
+          <t>Maksymalna Data realizacji</t>
+        </is>
+      </c>
+      <c r="E2009" s="0" t="inlineStr">
+        <is>
+          <t>MAximum service date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2010">
+      <c r="A2010" s="0" t="inlineStr">
+        <is>
+          <t>08/05/20</t>
+        </is>
+      </c>
+      <c r="B2010" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2010" s="0" t="inlineStr">
+        <is>
+          <t>app.invoice_group.pdf.number_of_orders</t>
+        </is>
+      </c>
+      <c r="D2010" s="0" t="inlineStr">
+        <is>
+          <t>Liczba zamówień</t>
+        </is>
+      </c>
+      <c r="E2010" s="0" t="inlineStr">
+        <is>
+          <t>Number of orders</t>
+        </is>
+      </c>
+    </row>
+    <row r="2011">
+      <c r="A2011" s="0" t="inlineStr">
+        <is>
+          <t>08/05/20</t>
+        </is>
+      </c>
+      <c r="B2011" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2011" s="0" t="inlineStr">
+        <is>
+          <t>app.invoice_group.pdf.orders_numbers</t>
+        </is>
+      </c>
+      <c r="D2011" s="0" t="inlineStr">
+        <is>
+          <t>Numery zamówień</t>
+        </is>
+      </c>
+      <c r="E2011" s="0" t="inlineStr">
+        <is>
+          <t>Order numbers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2012">
+      <c r="A2012" s="0" t="inlineStr">
+        <is>
+          <t>08/05/20</t>
+        </is>
+      </c>
+      <c r="B2012" s="0" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="C2012" s="0" t="inlineStr">
+        <is>
+          <t>app.worker_form.available_for_hours_registry</t>
+        </is>
+      </c>
+      <c r="D2012" s="0" t="inlineStr">
+        <is>
+          <t>Dostępne dla rejestru godzin</t>
+        </is>
+      </c>
+      <c r="E2012" s="0" t="inlineStr">
+        <is>
+          <t>Available for hours registry</t>
+        </is>
+      </c>
+    </row>
+    <row r="2013">
+      <c r="A2013" s="0" t="inlineStr">
+        <is>
+          <t>08/05/20</t>
+        </is>
+      </c>
+      <c r="B2013" s="0" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="C2013" s="0" t="inlineStr">
+        <is>
+          <t>app.worker_form.send_payroll</t>
+        </is>
+      </c>
+      <c r="D2013" s="0" t="inlineStr">
+        <is>
+          <t>Wyślij listę płac</t>
+        </is>
+      </c>
+      <c r="E2013" s="0" t="inlineStr">
+        <is>
+          <t>Send payrolll</t>
+        </is>
+      </c>
+    </row>
+    <row r="2014">
+      <c r="A2014" s="0" t="inlineStr">
+        <is>
+          <t>08/05/20</t>
+        </is>
+      </c>
+      <c r="B2014" s="0" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="C2014" s="0" t="inlineStr">
+        <is>
+          <t>app.worker_form.send_payroll_at_day</t>
+        </is>
+      </c>
+      <c r="D2014" s="0" t="inlineStr">
+        <is>
+          <t>Wyślij listę płac dnia</t>
+        </is>
+      </c>
+      <c r="E2014" s="0" t="inlineStr">
+        <is>
+          <t>Send payrolll on day</t>
+        </is>
+      </c>
+    </row>
+    <row r="2015">
+      <c r="A2015" s="0" t="inlineStr">
+        <is>
+          <t>08/05/20</t>
+        </is>
+      </c>
+      <c r="B2015" s="0" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="C2015" s="0" t="inlineStr">
+        <is>
+          <t>app.worker_form.payroll_password</t>
+        </is>
+      </c>
+      <c r="D2015" s="0" t="inlineStr">
+        <is>
+          <t>Hasło</t>
+        </is>
+      </c>
+      <c r="E2015" s="0" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+    </row>
+    <row r="2016">
+      <c r="A2016" s="0" t="inlineStr">
+        <is>
+          <t>08/05/20</t>
+        </is>
+      </c>
+      <c r="B2016" s="0" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="C2016" s="0" t="inlineStr">
+        <is>
+          <t>app.invoice_group_discount.name</t>
+        </is>
+      </c>
+      <c r="D2016" s="0" t="inlineStr">
+        <is>
+          <t>Nazwa</t>
+        </is>
+      </c>
+      <c r="E2016" s="0" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2017">
+      <c r="A2017" s="0" t="inlineStr">
+        <is>
+          <t>08/05/20</t>
+        </is>
+      </c>
+      <c r="B2017" s="0" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="C2017" s="0" t="inlineStr">
+        <is>
+          <t>app.invoice_group_discount.value</t>
+        </is>
+      </c>
+      <c r="D2017" s="0" t="inlineStr">
+        <is>
+          <t>Wartość</t>
+        </is>
+      </c>
+      <c r="E2017" s="0" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2018">
+      <c r="A2018" s="0" t="inlineStr">
+        <is>
+          <t>08/05/20</t>
+        </is>
+      </c>
+      <c r="B2018" s="0" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="C2018" s="0" t="inlineStr">
+        <is>
+          <t>app.company.settings.disable_order_reports</t>
+        </is>
+      </c>
+      <c r="D2018" s="0" t="inlineStr">
+        <is>
+          <t>Blokowanie wystawiania raportów</t>
+        </is>
+      </c>
+      <c r="E2018" s="0" t="inlineStr">
+        <is>
+          <t>Disabling of creating reports for order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2019">
+      <c r="A2019" s="0" t="inlineStr">
+        <is>
+          <t>08/05/20</t>
+        </is>
+      </c>
+      <c r="B2019" s="0" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="C2019" s="0" t="inlineStr">
+        <is>
+          <t>app.company.settings.days_for_disable_reports.verification</t>
+        </is>
+      </c>
+      <c r="D2019" s="0" t="inlineStr">
+        <is>
+          <t>Weryfikacja</t>
+        </is>
+      </c>
+      <c r="E2019" s="0" t="inlineStr">
+        <is>
+          <t>Verification</t>
+        </is>
+      </c>
+    </row>
+    <row r="2020">
+      <c r="A2020" s="0" t="inlineStr">
+        <is>
+          <t>08/05/20</t>
+        </is>
+      </c>
+      <c r="B2020" s="0" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="C2020" s="0" t="inlineStr">
+        <is>
+          <t>app.company.settings.days_for_disable_reports.payer_not_confirmed</t>
+        </is>
+      </c>
+      <c r="D2020" s="0" t="inlineStr">
+        <is>
+          <t>Brak potwierdzenia PO przez płatnika</t>
+        </is>
+      </c>
+      <c r="E2020" s="0" t="inlineStr">
+        <is>
+          <t>PO not accepted by payer</t>
+        </is>
+      </c>
+    </row>
+    <row r="2021">
+      <c r="A2021" s="0" t="inlineStr">
+        <is>
+          <t>08/05/20</t>
+        </is>
+      </c>
+      <c r="B2021" s="0" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="C2021" s="0" t="inlineStr">
+        <is>
+          <t>app.company.settings.days_for_disable_reports.waiting_for_po</t>
+        </is>
+      </c>
+      <c r="D2021" s="0" t="inlineStr">
+        <is>
+          <t>Oczekiwanie na PO</t>
+        </is>
+      </c>
+      <c r="E2021" s="0" t="inlineStr">
+        <is>
+          <t>Waiting for PO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2022">
+      <c r="A2022" s="0" t="inlineStr">
+        <is>
+          <t>08/05/20</t>
+        </is>
+      </c>
+      <c r="B2022" s="0" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="C2022" s="0" t="inlineStr">
+        <is>
+          <t>app.company.settings.days_for_disable_reports.po_uploaded</t>
+        </is>
+      </c>
+      <c r="D2022" s="0" t="inlineStr">
+        <is>
+          <t>PO załączone</t>
+        </is>
+      </c>
+      <c r="E2022" s="0" t="inlineStr">
+        <is>
+          <t>PO uploaded</t>
+        </is>
+      </c>
+    </row>
+    <row r="2023">
+      <c r="A2023" s="0" t="inlineStr">
+        <is>
+          <t>08/05/20</t>
+        </is>
+      </c>
+      <c r="B2023" s="0" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="C2023" s="0" t="inlineStr">
+        <is>
+          <t>app.permission.notification</t>
+        </is>
+      </c>
+      <c r="D2023" s="0" t="inlineStr">
+        <is>
+          <t>Powiadomienia</t>
+        </is>
+      </c>
+      <c r="E2023" s="0" t="inlineStr">
+        <is>
+          <t>Notifications</t>
+        </is>
+      </c>
+    </row>
+    <row r="2024">
+      <c r="A2024" s="0" t="inlineStr">
+        <is>
+          <t>08/05/20</t>
+        </is>
+      </c>
+      <c r="B2024" s="0" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="C2024" s="0" t="inlineStr">
+        <is>
+          <t>app.invoice_group.payment_status.other</t>
+        </is>
+      </c>
+      <c r="D2024" s="0" t="inlineStr">
+        <is>
+          <t>Inny</t>
+        </is>
+      </c>
+      <c r="E2024" s="0" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="2025">
+      <c r="A2025" s="0" t="inlineStr">
+        <is>
+          <t>08/05/20</t>
+        </is>
+      </c>
+      <c r="B2025" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2025" s="0" t="inlineStr">
+        <is>
+          <t>app.invoice_group.payment_status.other</t>
+        </is>
+      </c>
+      <c r="D2025" s="0" t="inlineStr">
+        <is>
+          <t>Inny</t>
+        </is>
+      </c>
+      <c r="E2025" s="0" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="2026">
+      <c r="A2026" s="0" t="inlineStr">
+        <is>
+          <t>08/05/20</t>
+        </is>
+      </c>
+      <c r="B2026" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2026" s="0" t="inlineStr">
+        <is>
+          <t>app.permission.notification</t>
+        </is>
+      </c>
+      <c r="D2026" s="0" t="inlineStr">
+        <is>
+          <t>Powiadomienia</t>
+        </is>
+      </c>
+      <c r="E2026" s="0" t="inlineStr">
+        <is>
+          <t>Permissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="2027">
+      <c r="A2027" t="inlineStr">
+        <is>
+          <t>08/05/20</t>
+        </is>
+      </c>
+      <c r="B2027" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2027" t="inlineStr">
+        <is>
+          <t>app.worker_form.notification_emails.type.payroll</t>
+        </is>
+      </c>
+      <c r="D2027" t="inlineStr">
+        <is>
+          <t>Lista płac</t>
+        </is>
+      </c>
+      <c r="E2027" t="inlineStr">
+        <is>
+          <t>Payroll</t>
         </is>
       </c>
     </row>
@@ -57562,7 +58291,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Logs/Keys_changed.xlsx
+++ b/Logs/Keys_changed.xlsx
@@ -644,7 +644,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G2027"/>
+  <dimension ref="A1:G2033"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A1954" activePane="bottomLeft" state="frozen"/>
@@ -58249,29 +58249,201 @@
       </c>
     </row>
     <row r="2027">
-      <c r="A2027" t="inlineStr">
+      <c r="A2027" s="0" t="inlineStr">
         <is>
           <t>08/05/20</t>
         </is>
       </c>
-      <c r="B2027" t="inlineStr">
-        <is>
-          <t>messages</t>
-        </is>
-      </c>
-      <c r="C2027" t="inlineStr">
+      <c r="B2027" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2027" s="0" t="inlineStr">
         <is>
           <t>app.worker_form.notification_emails.type.payroll</t>
         </is>
       </c>
-      <c r="D2027" t="inlineStr">
+      <c r="D2027" s="0" t="inlineStr">
         <is>
           <t>Lista płac</t>
         </is>
       </c>
-      <c r="E2027" t="inlineStr">
+      <c r="E2027" s="0" t="inlineStr">
         <is>
           <t>Payroll</t>
+        </is>
+      </c>
+    </row>
+    <row r="2028">
+      <c r="A2028" s="0" t="inlineStr">
+        <is>
+          <t>08/06/20</t>
+        </is>
+      </c>
+      <c r="B2028" s="0" t="inlineStr">
+        <is>
+          <t>whr</t>
+        </is>
+      </c>
+      <c r="C2028" s="0" t="inlineStr">
+        <is>
+          <t>whr.registry.acceptance_info</t>
+        </is>
+      </c>
+      <c r="D2028" s="0" t="inlineStr">
+        <is>
+          <t>Informacje o akceptacji</t>
+        </is>
+      </c>
+      <c r="E2028" s="0" t="inlineStr">
+        <is>
+          <t>Acceptance info</t>
+        </is>
+      </c>
+    </row>
+    <row r="2029">
+      <c r="A2029" s="0" t="inlineStr">
+        <is>
+          <t>08/06/20</t>
+        </is>
+      </c>
+      <c r="B2029" s="0" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="C2029" s="0" t="inlineStr">
+        <is>
+          <t>app.worker_form.enable_hours_registry_actions_at_day</t>
+        </is>
+      </c>
+      <c r="D2029" s="0" t="inlineStr">
+        <is>
+          <t>Aktywuj akcje na rejestrze godzin</t>
+        </is>
+      </c>
+      <c r="E2029" s="0" t="inlineStr">
+        <is>
+          <t>Enable hours registry actions</t>
+        </is>
+      </c>
+    </row>
+    <row r="2030">
+      <c r="A2030" s="0" t="inlineStr">
+        <is>
+          <t>08/06/20</t>
+        </is>
+      </c>
+      <c r="B2030" s="0" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="C2030" s="0" t="inlineStr">
+        <is>
+          <t>app.worker_form.disable_hours_registry_actions_at_day</t>
+        </is>
+      </c>
+      <c r="D2030" s="0" t="inlineStr">
+        <is>
+          <t>Dezaktywuj akcje na rejestrze godzin</t>
+        </is>
+      </c>
+      <c r="E2030" s="0" t="inlineStr">
+        <is>
+          <t>Disable hours registry actions</t>
+        </is>
+      </c>
+    </row>
+    <row r="2031">
+      <c r="A2031" s="0" t="inlineStr">
+        <is>
+          <t>08/07/20</t>
+        </is>
+      </c>
+      <c r="B2031" s="0" t="inlineStr">
+        <is>
+          <t>whr</t>
+        </is>
+      </c>
+      <c r="C2031" s="0" t="inlineStr">
+        <is>
+          <t>whr.registry.acceptance_info</t>
+        </is>
+      </c>
+      <c r="D2031" s="0" t="inlineStr">
+        <is>
+          <t>Uwaga! Zgodnie z zapisami w umowie potwierdzanie godzin jest możliwe wyłącznie w termie od %from%-go do %to%-go dnia miesiąca następującego po miesiącu faktycznego wykonywania zlecenia</t>
+        </is>
+      </c>
+      <c r="E2031" s="0" t="inlineStr">
+        <is>
+          <t>Warning! In accordance with the provisions of the contract, confirmation of hours is possible only in the term from %from% to %to% of the day of the month following the month in which the order is actually performed.</t>
+        </is>
+      </c>
+      <c r="F2031" s="0" t="inlineStr">
+        <is>
+          <t>Uwaga! Zgodnie z zapisami w umowie potwierdzanie godzin jest możliwe wyłącznie w termie od %from%-go do %to%-go dnia miesiąca następującego po miesiącu faktycznego wykonywania zlecenia</t>
+        </is>
+      </c>
+      <c r="G2031" s="0" t="inlineStr">
+        <is>
+          <t>Acceptance info</t>
+        </is>
+      </c>
+    </row>
+    <row r="2032">
+      <c r="A2032" s="0" t="inlineStr">
+        <is>
+          <t>08/07/20</t>
+        </is>
+      </c>
+      <c r="B2032" s="0" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2032" s="0" t="inlineStr">
+        <is>
+          <t>app.profile.search</t>
+        </is>
+      </c>
+      <c r="D2032" s="0" t="inlineStr">
+        <is>
+          <t>Wyszukaj</t>
+        </is>
+      </c>
+      <c r="E2032" s="0" t="inlineStr">
+        <is>
+          <t>Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="2033">
+      <c r="A2033" t="inlineStr">
+        <is>
+          <t>08/07/20</t>
+        </is>
+      </c>
+      <c r="B2033" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C2033" t="inlineStr">
+        <is>
+          <t>app.order_report.activeWallet.label</t>
+        </is>
+      </c>
+      <c r="D2033" t="inlineStr">
+        <is>
+          <t>Portfel Extra środków</t>
+        </is>
+      </c>
+      <c r="E2033" t="inlineStr">
+        <is>
+          <t>Extra found wallet</t>
         </is>
       </c>
     </row>
